--- a/mim_startex/outs/US Polo-Startex-with Prepack.xlsx
+++ b/mim_startex/outs/US Polo-Startex-with Prepack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W187"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Barcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Total Qty.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -660,6 +665,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -771,6 +781,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -882,6 +897,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -993,6 +1013,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1129,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1215,6 +1245,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1326,6 +1361,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1437,6 +1477,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1548,6 +1593,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1659,6 +1709,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1770,6 +1825,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1881,6 +1941,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1992,6 +2057,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2103,6 +2173,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2214,6 +2289,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2325,6 +2405,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2436,6 +2521,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2547,6 +2637,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2753,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2769,6 +2869,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2880,6 +2985,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2991,6 +3101,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3102,6 +3217,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3213,6 +3333,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3324,6 +3449,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3435,6 +3565,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3546,6 +3681,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3657,6 +3797,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3768,6 +3913,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3879,6 +4029,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3990,6 +4145,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4101,6 +4261,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4212,6 +4377,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4323,6 +4493,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4434,6 +4609,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4545,6 +4725,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4656,6 +4841,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4767,6 +4957,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4878,6 +5073,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4989,6 +5189,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5100,6 +5305,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5211,6 +5421,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5322,6 +5537,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5433,6 +5653,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5544,6 +5769,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5655,6 +5885,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5766,6 +6001,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5877,6 +6117,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5988,6 +6233,11 @@
           <t>5711703895231</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6099,6 +6349,11 @@
           <t>5711703644488</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6210,6 +6465,11 @@
           <t>5711703315180</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6321,6 +6581,11 @@
           <t>5711703315197</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6432,6 +6697,11 @@
           <t>5711703315203</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6543,6 +6813,11 @@
           <t>5711703315210</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6654,6 +6929,11 @@
           <t>5711703315227</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6765,6 +7045,11 @@
           <t>5711703534505</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6876,6 +7161,11 @@
           <t>5715524402937</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6987,6 +7277,11 @@
           <t>5715524402944</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7098,6 +7393,11 @@
           <t>5715524402951</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7209,6 +7509,11 @@
           <t>5715524402968</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7320,6 +7625,11 @@
           <t>5715524402975</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7431,6 +7741,11 @@
           <t>5715524403187</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7542,6 +7857,11 @@
           <t>5715524403194</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7653,6 +7973,11 @@
           <t>5715524403200</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7764,6 +8089,11 @@
           <t>5715524403217</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7875,6 +8205,11 @@
           <t>5715524403224</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7986,6 +8321,11 @@
           <t>5715524199523</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8097,6 +8437,11 @@
           <t>5715524199530</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8208,6 +8553,11 @@
           <t>5715524199547</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8319,6 +8669,11 @@
           <t>5715524199554</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8430,6 +8785,11 @@
           <t>5715524199561</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8541,6 +8901,11 @@
           <t>5711703352604</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8652,6 +9017,11 @@
           <t>5711703352611</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8763,6 +9133,11 @@
           <t>5711703352628</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8874,6 +9249,11 @@
           <t>5711703352635</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8985,6 +9365,11 @@
           <t>5711703352642</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9096,6 +9481,11 @@
           <t>5715524199752</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9207,6 +9597,11 @@
           <t>5715524199769</t>
         </is>
       </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9318,6 +9713,11 @@
           <t>5715524199776</t>
         </is>
       </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9429,6 +9829,11 @@
           <t>5715524199783</t>
         </is>
       </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9540,6 +9945,11 @@
           <t>5715524199790</t>
         </is>
       </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9651,6 +10061,11 @@
           <t>5711704085815</t>
         </is>
       </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9762,6 +10177,11 @@
           <t>5711704085822</t>
         </is>
       </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9873,6 +10293,11 @@
           <t>5711704085839</t>
         </is>
       </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9984,6 +10409,11 @@
           <t>5711704085846</t>
         </is>
       </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10095,6 +10525,11 @@
           <t>5711704085853</t>
         </is>
       </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10206,6 +10641,11 @@
           <t>5715524199981</t>
         </is>
       </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10317,6 +10757,11 @@
           <t>5715524199998</t>
         </is>
       </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10428,6 +10873,11 @@
           <t>5715524200007</t>
         </is>
       </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10539,6 +10989,11 @@
           <t>5715524200014</t>
         </is>
       </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10650,6 +11105,11 @@
           <t>5715524200021</t>
         </is>
       </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10761,6 +11221,11 @@
           <t>5715524405655</t>
         </is>
       </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10872,6 +11337,11 @@
           <t>5715524405662</t>
         </is>
       </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10983,6 +11453,11 @@
           <t>5715524405679</t>
         </is>
       </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11094,6 +11569,11 @@
           <t>5715524405686</t>
         </is>
       </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11205,6 +11685,11 @@
           <t>5715524405693</t>
         </is>
       </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11316,6 +11801,11 @@
           <t>5715524405655</t>
         </is>
       </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11427,6 +11917,11 @@
           <t>5715524405662</t>
         </is>
       </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11538,6 +12033,11 @@
           <t>5715524405679</t>
         </is>
       </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11649,6 +12149,11 @@
           <t>5715524405686</t>
         </is>
       </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11760,6 +12265,11 @@
           <t>5715524405693</t>
         </is>
       </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11871,6 +12381,11 @@
           <t>5715524405655</t>
         </is>
       </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11982,6 +12497,11 @@
           <t>5715524405662</t>
         </is>
       </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12093,6 +12613,11 @@
           <t>5715524405679</t>
         </is>
       </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12204,6 +12729,11 @@
           <t>5715524405686</t>
         </is>
       </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12315,6 +12845,11 @@
           <t>5715524405693</t>
         </is>
       </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12426,6 +12961,11 @@
           <t>5715524357282</t>
         </is>
       </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12537,6 +13077,11 @@
           <t>5715524357299</t>
         </is>
       </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12648,6 +13193,11 @@
           <t>5715524357305</t>
         </is>
       </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12759,6 +13309,11 @@
           <t>5715524357312</t>
         </is>
       </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12870,6 +13425,11 @@
           <t>5715524357329</t>
         </is>
       </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12981,6 +13541,11 @@
           <t>5711703589338</t>
         </is>
       </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13092,6 +13657,11 @@
           <t>5711703589345</t>
         </is>
       </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13203,6 +13773,11 @@
           <t>5711703589352</t>
         </is>
       </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13314,6 +13889,11 @@
           <t>5711703589369</t>
         </is>
       </c>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13425,6 +14005,11 @@
           <t>5711703589376</t>
         </is>
       </c>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13536,6 +14121,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13647,6 +14237,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13758,6 +14353,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13869,6 +14469,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13980,6 +14585,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14091,6 +14701,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14202,6 +14817,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14313,6 +14933,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14424,6 +15049,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14535,6 +15165,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14646,6 +15281,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14757,6 +15397,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14868,6 +15513,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14979,6 +15629,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15090,6 +15745,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15201,6 +15861,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15312,6 +15977,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15423,6 +16093,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15534,6 +16209,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15645,6 +16325,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15756,6 +16441,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15867,6 +16557,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15978,6 +16673,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16089,6 +16789,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16200,6 +16905,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16311,6 +17021,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16422,6 +17137,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16533,6 +17253,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16644,6 +17369,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16755,6 +17485,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16866,6 +17601,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16977,6 +17717,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17088,6 +17833,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17199,6 +17949,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17310,6 +18065,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17421,6 +18181,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17532,6 +18297,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17643,6 +18413,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17754,6 +18529,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17865,6 +18645,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17976,6 +18761,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18087,6 +18877,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18198,6 +18993,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18309,6 +19109,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18420,6 +19225,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18531,6 +19341,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18642,6 +19457,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18753,6 +19573,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18864,6 +19689,11 @@
           <t>5711703895422</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18975,6 +19805,11 @@
           <t>5711703644747</t>
         </is>
       </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19086,6 +19921,11 @@
           <t>5711703407533</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19197,6 +20037,11 @@
           <t>5711703407540</t>
         </is>
       </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19308,6 +20153,11 @@
           <t>5711703407557</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19419,6 +20269,11 @@
           <t>5711703407564</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19530,6 +20385,11 @@
           <t>5711703407571</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19641,6 +20501,11 @@
           <t>5711703534703</t>
         </is>
       </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19752,6 +20617,11 @@
           <t>5711703895453</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19863,6 +20733,11 @@
           <t>5711703644808</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19974,6 +20849,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20085,6 +20965,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20196,6 +21081,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20307,6 +21197,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20418,6 +21313,11 @@
           <t>5711703315401</t>
         </is>
       </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20529,6 +21429,11 @@
           <t>5711703895453</t>
         </is>
       </c>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20640,6 +21545,11 @@
           <t>5711703644808</t>
         </is>
       </c>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20751,6 +21661,11 @@
           <t>5711703315364</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20862,6 +21777,11 @@
           <t>5711703315371</t>
         </is>
       </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20973,6 +21893,11 @@
           <t>5711703315388</t>
         </is>
       </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21084,6 +22009,11 @@
           <t>5711703315395</t>
         </is>
       </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>5538</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21193,6 +22123,11 @@
       <c r="W187" t="inlineStr">
         <is>
           <t>5711703315401</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>5538</t>
         </is>
       </c>
     </row>
